--- a/src/main/resources/vendor_voucher/11#voucher_template.xlsx
+++ b/src/main/resources/vendor_voucher/11#voucher_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouqianhao/Projects/nztrip/src/main/resources/vendor_voucher/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>确认号</t>
   </si>
@@ -105,6 +105,15 @@
   <si>
     <t>Address: 120 South Bay Parade, Kaikoura New Zealand</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门票形式</t>
+  </si>
+  <si>
+    <t>TICKET INFO</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -220,32 +229,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -587,39 +596,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I5"/>
+      <selection activeCell="E16" sqref="E16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="62" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -630,11 +639,11 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -645,11 +654,11 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -660,11 +669,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -675,11 +684,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -690,11 +699,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -705,11 +714,11 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -720,11 +729,11 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -735,11 +744,11 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -750,11 +759,11 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -765,13 +774,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -780,14 +789,36 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="E9:I9"/>
     <mergeCell ref="E10:I10"/>
     <mergeCell ref="A1:I1"/>
@@ -796,11 +827,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
